--- a/resultados/dados_parcela.xlsx
+++ b/resultados/dados_parcela.xlsx
@@ -416,10 +416,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>272</v>
+        <v>428.5</v>
       </c>
       <c r="C2" t="n">
-        <v>103.5</v>
+        <v>163.75</v>
       </c>
       <c r="D2" t="n">
         <v>8.67613636363636</v>
@@ -439,10 +439,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>175.75</v>
+        <v>280.5</v>
       </c>
       <c r="C3" t="n">
-        <v>93.75</v>
+        <v>149.5</v>
       </c>
       <c r="D3" t="n">
         <v>8.24553571428571</v>
@@ -462,10 +462,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>240.75</v>
+        <v>380.75</v>
       </c>
       <c r="C4" t="n">
-        <v>137.25</v>
+        <v>217.25</v>
       </c>
       <c r="D4" t="n">
         <v>11.0147058823529</v>
@@ -485,10 +485,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>224</v>
+        <v>354.25</v>
       </c>
       <c r="C5" t="n">
-        <v>130.75</v>
+        <v>207.75</v>
       </c>
       <c r="D5" t="n">
         <v>7.38888888888889</v>
@@ -508,10 +508,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>152.25</v>
+        <v>238.25</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D6" t="n">
         <v>9.03</v>
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>132.75</v>
+        <v>207.75</v>
       </c>
       <c r="C7" t="n">
-        <v>57.25</v>
+        <v>89.75</v>
       </c>
       <c r="D7" t="n">
         <v>8.36314285714286</v>
@@ -554,10 +554,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>180.75</v>
+        <v>286.75</v>
       </c>
       <c r="C8" t="n">
-        <v>111.75</v>
+        <v>175</v>
       </c>
       <c r="D8" t="n">
         <v>8.1840350877193</v>
@@ -577,10 +577,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>237.75</v>
+        <v>374.5</v>
       </c>
       <c r="C9" t="n">
-        <v>144</v>
+        <v>226.5</v>
       </c>
       <c r="D9" t="n">
         <v>7.90625</v>
